--- a/weights.xlsx
+++ b/weights.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\G-Doc\YandexDisk\Job\TOP Academy\Python web\224\projects\1\_ref1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A9038F-970E-48F2-8EA0-0320660107C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A435E6-EB0A-4574-BED0-8BE5831BB3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Веса пустых" sheetId="2" r:id="rId1"/>
     <sheet name="Партия 1" sheetId="1" r:id="rId2"/>
     <sheet name="Партия 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Стратегические матрицы" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>матрица принятия решения</t>
   </si>
@@ -69,6 +70,12 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>стратегия крестика</t>
+  </si>
+  <si>
+    <t>стратегия нолика</t>
   </si>
 </sst>
 </file>
@@ -193,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -263,6 +270,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,7 +591,7 @@
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1257,7 +1267,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1587,4 +1597,1134 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42311B11-D71D-4536-94D5-681B57115A12}">
+  <dimension ref="A1:AC24"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="4.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>2</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>3</v>
+      </c>
+      <c r="S4" s="1">
+        <v>3</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>2</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>2</v>
+      </c>
+      <c r="B10" s="16">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="16">
+        <v>2</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>3</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>2</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>2</v>
+      </c>
+      <c r="U10" s="1">
+        <v>3</v>
+      </c>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1">
+        <v>4</v>
+      </c>
+      <c r="X10" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>0</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="16">
+        <v>2</v>
+      </c>
+      <c r="K11" s="16">
+        <v>1</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0</v>
+      </c>
+      <c r="M11" s="16">
+        <v>1</v>
+      </c>
+      <c r="N11" s="16">
+        <v>2</v>
+      </c>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>1</v>
+      </c>
+      <c r="R11" s="16">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>2</v>
+      </c>
+      <c r="W11" s="1">
+        <v>3</v>
+      </c>
+      <c r="X11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>2</v>
+      </c>
+      <c r="B12" s="16">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16">
+        <v>2</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16">
+        <v>0</v>
+      </c>
+      <c r="M12" s="16">
+        <v>0</v>
+      </c>
+      <c r="N12" s="16">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>0</v>
+      </c>
+      <c r="R12" s="16">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="16">
+        <v>2</v>
+      </c>
+      <c r="K13" s="16">
+        <v>1</v>
+      </c>
+      <c r="L13" s="16">
+        <v>0</v>
+      </c>
+      <c r="M13" s="16">
+        <v>1</v>
+      </c>
+      <c r="N13" s="16">
+        <v>2</v>
+      </c>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>0</v>
+      </c>
+      <c r="R13" s="16">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="J14" s="16">
+        <v>3</v>
+      </c>
+      <c r="K14" s="16">
+        <v>2</v>
+      </c>
+      <c r="L14" s="16">
+        <v>0</v>
+      </c>
+      <c r="M14" s="16">
+        <v>2</v>
+      </c>
+      <c r="N14" s="16">
+        <v>3</v>
+      </c>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>1</v>
+      </c>
+      <c r="R14" s="16">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>2</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>2</v>
+      </c>
+      <c r="R15" s="16">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>2</v>
+      </c>
+      <c r="U15" s="1">
+        <v>3</v>
+      </c>
+      <c r="W15" s="1">
+        <v>3</v>
+      </c>
+      <c r="X15" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="W16" s="1">
+        <v>4</v>
+      </c>
+      <c r="X16" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+    </row>
+    <row r="18" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+    </row>
+    <row r="19" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+    </row>
+    <row r="20" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+    </row>
+    <row r="21" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+    </row>
+    <row r="22" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+    </row>
+    <row r="23" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+    </row>
+    <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>